--- a/drafts/prayer-research/summary.xlsx
+++ b/drafts/prayer-research/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholas/Projects/takeitupandread/drafts/prayer-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7048C5-B6E9-2E49-A18A-939F52F21907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F936C1A9-CBB1-F94C-B31F-E558FEDC950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="2060" windowWidth="30740" windowHeight="17440" xr2:uid="{475EAC58-CAAA-3E44-95BF-629DB906D1F5}"/>
+    <workbookView xWindow="4300" yWindow="2060" windowWidth="29900" windowHeight="17440" xr2:uid="{475EAC58-CAAA-3E44-95BF-629DB906D1F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="265">
   <si>
     <t>Book</t>
   </si>
@@ -775,6 +775,138 @@
   </si>
   <si>
     <t>Sixth hour</t>
+  </si>
+  <si>
+    <t>10:30-31</t>
+  </si>
+  <si>
+    <t>Angels appears to Cornelius</t>
+  </si>
+  <si>
+    <t>Ninth hour</t>
+  </si>
+  <si>
+    <t>11:5</t>
+  </si>
+  <si>
+    <t>Part of Peter's defense</t>
+  </si>
+  <si>
+    <t>City of Joppa</t>
+  </si>
+  <si>
+    <t>Prayer for imprisoned Peter</t>
+  </si>
+  <si>
+    <t>12:5</t>
+  </si>
+  <si>
+    <t>The church</t>
+  </si>
+  <si>
+    <t>For mercy for Peter</t>
+  </si>
+  <si>
+    <t>12:12</t>
+  </si>
+  <si>
+    <t>Peter arriving at Mary's house</t>
+  </si>
+  <si>
+    <t>Mary's house</t>
+  </si>
+  <si>
+    <t>13:3</t>
+  </si>
+  <si>
+    <t>praying before sending</t>
+  </si>
+  <si>
+    <t>15:25</t>
+  </si>
+  <si>
+    <t>Paul and Silas in prison</t>
+  </si>
+  <si>
+    <t>Paul and Silas</t>
+  </si>
+  <si>
+    <t>Midnight</t>
+  </si>
+  <si>
+    <t>Singing hymns</t>
+  </si>
+  <si>
+    <t>Prison</t>
+  </si>
+  <si>
+    <t>20:36</t>
+  </si>
+  <si>
+    <t>Kneeling down at Miletus</t>
+  </si>
+  <si>
+    <t>Miletus</t>
+  </si>
+  <si>
+    <t>21:5</t>
+  </si>
+  <si>
+    <t>Kneeling down at Tyre's beach</t>
+  </si>
+  <si>
+    <t>Before departing</t>
+  </si>
+  <si>
+    <t>Tyre's beach</t>
+  </si>
+  <si>
+    <t>22:17</t>
+  </si>
+  <si>
+    <t>Paul praying in the temple</t>
+  </si>
+  <si>
+    <t>27:35</t>
+  </si>
+  <si>
+    <t>Paul giving thanks</t>
+  </si>
+  <si>
+    <t>Bread in hand</t>
+  </si>
+  <si>
+    <t>Ship</t>
+  </si>
+  <si>
+    <t>Before eating</t>
+  </si>
+  <si>
+    <t>Thanking God for food</t>
+  </si>
+  <si>
+    <t>28:8</t>
+  </si>
+  <si>
+    <t>Paul prays for Publius's father</t>
+  </si>
+  <si>
+    <t>Healing</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Sickbed</t>
+  </si>
+  <si>
+    <t>Publius's father</t>
+  </si>
+  <si>
+    <t>For healing for Publius's father</t>
+  </si>
+  <si>
+    <t>Most likely an unbeliever</t>
   </si>
 </sst>
 </file>
@@ -857,10 +989,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1183,8 +1311,8 @@
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2304,6 +2432,9 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>177</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>182</v>
       </c>
@@ -2336,6 +2467,9 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>177</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>187</v>
       </c>
@@ -2350,6 +2484,9 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>177</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>190</v>
       </c>
@@ -2388,6 +2525,9 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>177</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>195</v>
       </c>
@@ -2402,6 +2542,9 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>177</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>197</v>
       </c>
@@ -2437,6 +2580,9 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>202</v>
       </c>
@@ -2451,6 +2597,9 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>204</v>
       </c>
@@ -2465,6 +2614,9 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>177</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>207</v>
       </c>
@@ -2497,6 +2649,9 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>177</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>213</v>
       </c>
@@ -2517,6 +2672,9 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>177</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>217</v>
       </c>
@@ -2540,54 +2698,337 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" t="s">
+        <v>215</v>
+      </c>
+      <c r="K48" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s">
+        <v>155</v>
+      </c>
+      <c r="M49" t="s">
+        <v>226</v>
+      </c>
+      <c r="N49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>229</v>
+      </c>
+      <c r="H50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" t="s">
+        <v>121</v>
+      </c>
+      <c r="N50" t="s">
+        <v>193</v>
+      </c>
+      <c r="O50" t="s">
+        <v>230</v>
+      </c>
+      <c r="P50" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>229</v>
+      </c>
+      <c r="M51" t="s">
+        <v>233</v>
+      </c>
+      <c r="N51" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
+        <v>229</v>
+      </c>
+      <c r="L52" t="s">
+        <v>108</v>
+      </c>
+      <c r="N52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" t="s">
+        <v>238</v>
+      </c>
+      <c r="I53" t="s">
+        <v>121</v>
+      </c>
+      <c r="K53" t="s">
+        <v>239</v>
+      </c>
+      <c r="L53" t="s">
+        <v>240</v>
+      </c>
+      <c r="M53" t="s">
+        <v>241</v>
+      </c>
+      <c r="N53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J54" t="s">
+        <v>156</v>
+      </c>
+      <c r="K54" t="s">
+        <v>247</v>
+      </c>
+      <c r="M54" t="s">
+        <v>244</v>
+      </c>
+      <c r="N54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" t="s">
+        <v>229</v>
+      </c>
+      <c r="J55" t="s">
+        <v>156</v>
+      </c>
+      <c r="K55" t="s">
+        <v>247</v>
+      </c>
+      <c r="M55" t="s">
+        <v>248</v>
+      </c>
+      <c r="N55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" t="s">
+        <v>205</v>
+      </c>
+      <c r="M56" t="s">
+        <v>57</v>
+      </c>
+      <c r="N56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" t="s">
+        <v>121</v>
+      </c>
+      <c r="J57" t="s">
+        <v>253</v>
+      </c>
+      <c r="K57" t="s">
+        <v>255</v>
+      </c>
+      <c r="M57" t="s">
+        <v>254</v>
+      </c>
+      <c r="N57" t="s">
+        <v>36</v>
+      </c>
+      <c r="O57" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" t="s">
+        <v>259</v>
+      </c>
+      <c r="L58" t="s">
+        <v>199</v>
+      </c>
+      <c r="M58" t="s">
+        <v>261</v>
+      </c>
+      <c r="N58" t="s">
+        <v>260</v>
+      </c>
+      <c r="O58" t="s">
+        <v>263</v>
+      </c>
+      <c r="P58" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>31</v>
+      </c>
+      <c r="R58" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">

--- a/drafts/prayer-research/summary.xlsx
+++ b/drafts/prayer-research/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholas/Projects/takeitupandread/drafts/prayer-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F936C1A9-CBB1-F94C-B31F-E558FEDC950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0A5B53-26A5-A247-AC0F-31DEAADB0583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2060" windowWidth="29900" windowHeight="17440" xr2:uid="{475EAC58-CAAA-3E44-95BF-629DB906D1F5}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="286">
   <si>
     <t>Book</t>
   </si>
@@ -907,6 +907,69 @@
   </si>
   <si>
     <t>Most likely an unbeliever</t>
+  </si>
+  <si>
+    <t>Rom</t>
+  </si>
+  <si>
+    <t>1:8-10</t>
+  </si>
+  <si>
+    <t>Paul praying through Jesus</t>
+  </si>
+  <si>
+    <t>Through Jesus Christ</t>
+  </si>
+  <si>
+    <t>Unceasingly</t>
+  </si>
+  <si>
+    <t>For their faith and to see them</t>
+  </si>
+  <si>
+    <t>Church in Rome</t>
+  </si>
+  <si>
+    <t>8:26</t>
+  </si>
+  <si>
+    <t>The Spirit helps us in our weakness</t>
+  </si>
+  <si>
+    <t>By the Spirit</t>
+  </si>
+  <si>
+    <t>10:1</t>
+  </si>
+  <si>
+    <t>That they may be saved</t>
+  </si>
+  <si>
+    <t>Intercession</t>
+  </si>
+  <si>
+    <t>For salvation of the Jews</t>
+  </si>
+  <si>
+    <t>The Jews</t>
+  </si>
+  <si>
+    <t>Be constant in prayer</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>Strive with me</t>
+  </si>
+  <si>
+    <t>Striving</t>
+  </si>
+  <si>
+    <t>For Paul to be delivered, have effective service, and see them again</t>
   </si>
 </sst>
 </file>
@@ -1311,8 +1374,8 @@
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3014,19 +3077,146 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="1"/>
+      <c r="A59" t="s">
+        <v>265</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" t="s">
+        <v>268</v>
+      </c>
+      <c r="H59" t="s">
+        <v>269</v>
+      </c>
+      <c r="I59" t="s">
+        <v>121</v>
+      </c>
+      <c r="N59" t="s">
+        <v>260</v>
+      </c>
+      <c r="O59" t="s">
+        <v>270</v>
+      </c>
+      <c r="P59" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="1"/>
+      <c r="A60" t="s">
+        <v>265</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" t="s">
+        <v>229</v>
+      </c>
+      <c r="G60" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="1"/>
+      <c r="A61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" t="s">
+        <v>277</v>
+      </c>
+      <c r="I61" t="s">
+        <v>121</v>
+      </c>
+      <c r="O61" t="s">
+        <v>278</v>
+      </c>
+      <c r="P61" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="1"/>
+      <c r="A62" t="s">
+        <v>265</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+      <c r="H62" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="1"/>
+      <c r="A63" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" t="s">
+        <v>277</v>
+      </c>
+      <c r="H63" t="s">
+        <v>284</v>
+      </c>
+      <c r="I63" t="s">
+        <v>121</v>
+      </c>
+      <c r="O63" t="s">
+        <v>285</v>
+      </c>
+      <c r="P63" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
